--- a/cake_app/templates/excel/characters_template.xlsx
+++ b/cake_app/templates/excel/characters_template.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="9C25"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId4"/>
-    <sheet name="LIST" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="VERSION" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="LIST" sheetId="2" state="veryHidden" r:id="rId5"/>
+    <sheet name="VERSION" sheetId="3" state="veryHidden" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>

--- a/cake_app/templates/excel/characters_template.xlsx
+++ b/cake_app/templates/excel/characters_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="9C25"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="CBBD"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <t>更新日時</t>
   </si>
   <si>
-    <t>b25b294cb4deb69ea00a4c3cf3113904801b6015e5956bd019a8570b1fe1d6040e944ef3cdee16d0a46503ca6e659a25f21cf9ceddc13f352a3c98138c15d6af</t>
+    <t>73842c4534be22815ce74e9bf7c0dfd147f4c39b83ef1137c2c9a80066383bbc8093679ad2923d6e653c38581e34540ca7a9b0e6dabdd79f674a7225a5bc2fd3</t>
   </si>
 </sst>
 </file>

--- a/cake_app/templates/excel/characters_template.xlsx
+++ b/cake_app/templates/excel/characters_template.xlsx
@@ -410,8 +410,8 @@
   <cols>
     <col min="1" max="1" width="10" customWidth="true" style="0"/>
     <col min="2" max="2" width="10" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10" customWidth="true" style="0"/>
+    <col min="3" max="3" width="19.38" customWidth="true" style="0"/>
+    <col min="4" max="4" width="19.38" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
